--- a/data/trans_camb/P05B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P05B_R-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.963605459623678</v>
+        <v>-2.865608139262692</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6664266758049116</v>
+        <v>-0.7086186100445878</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.144722012787067</v>
+        <v>-5.164383418643058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2476469875507358</v>
+        <v>-0.03874768516395459</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.058276631499889</v>
+        <v>1.0545678895133</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.256599843008054</v>
+        <v>-3.200661290331957</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.8777237703314561</v>
+        <v>-0.8352568707742404</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.076827307911754</v>
+        <v>0.9874551280314481</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.165661241995982</v>
+        <v>-3.383577730877355</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.840295973961589</v>
+        <v>3.105944331345444</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.484529833406243</v>
+        <v>6.510318958859856</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.4500438489937353</v>
+        <v>-0.5803850934441784</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.799310200080235</v>
+        <v>5.01244373944599</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.831521154568462</v>
+        <v>7.103959660528496</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.390395256651858</v>
+        <v>-0.3900974667342409</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.140447721883096</v>
+        <v>3.206723465423656</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.52726861044551</v>
+        <v>5.638328966019731</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.6573542583715732</v>
+        <v>-0.6727548952859215</v>
       </c>
     </row>
     <row r="7">
@@ -780,24 +780,26 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7659226447132966</v>
+        <v>-0.7915731003833782</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2623052646942088</v>
-      </c>
-      <c r="E8" s="6" t="inlineStr"/>
+        <v>-0.3314982974697384</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4447796231343147</v>
+        <v>-0.2954387717932052</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1050146464553803</v>
+        <v>-0.01481555830568245</v>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.3651873575298303</v>
+        <v>-0.4109623495749261</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3162782605876889</v>
+        <v>0.2069127028367315</v>
       </c>
       <c r="K8" s="6" t="n">
         <v>-1</v>
@@ -811,27 +813,29 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.561364592372283</v>
+        <v>3.830881765740658</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>6.542065426625829</v>
-      </c>
-      <c r="E9" s="6" t="inlineStr"/>
-      <c r="F9" s="6" t="n">
-        <v>10.90816617637083</v>
-      </c>
+        <v>6.16404249630406</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>18.51572080024261</v>
+        <v>16.31567690327548</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>3.820660852943656</v>
+        <v>3.551166009895339</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>5.650348668740985</v>
+        <v>6.467909892597498</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.04272927223222109</v>
+        <v>-0.231887412435289</v>
       </c>
     </row>
     <row r="10">
@@ -881,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.998786411810667</v>
+        <v>-1.537925452580104</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.487401576167227</v>
+        <v>-3.277064998386026</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.11897428960367</v>
+        <v>-4.966751651848178</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.049110190613975</v>
+        <v>-4.309950269800897</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.389117100533727</v>
+        <v>-3.398356713643254</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.149127820375291</v>
+        <v>-7.231663899328882</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.188722797225054</v>
+        <v>-2.187522436437006</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.795600612665715</v>
+        <v>-2.697015044204182</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.334271339755352</v>
+        <v>-5.466964173084852</v>
       </c>
     </row>
     <row r="12">
@@ -916,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.690121082946914</v>
+        <v>3.946273977208349</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.181301214854143</v>
+        <v>1.452181145839964</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.086149357476434</v>
+        <v>-0.8469754276492016</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.25056564159274</v>
+        <v>1.06832653177358</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.317840182921605</v>
+        <v>2.159083075387309</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.085153375455422</v>
+        <v>-2.884406799460411</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.821272661549416</v>
+        <v>1.858383959769406</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7874841346564586</v>
+        <v>0.8668231937062367</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.489629577165627</v>
+        <v>-2.583375105710122</v>
       </c>
     </row>
     <row r="13">
@@ -986,31 +990,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3760474977971726</v>
+        <v>-0.3503413498023246</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6963211257192641</v>
+        <v>-0.6690813279485356</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.947707865103267</v>
+        <v>-0.9529342337124644</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5647157960721045</v>
+        <v>-0.6239546765904269</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4909634810517511</v>
+        <v>-0.4934871876962639</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.9531805586578301</v>
+        <v>-0.95577703052276</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3881574870995993</v>
+        <v>-0.3838314893214971</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4809578745415438</v>
+        <v>-0.4727316561430006</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.9225451667943843</v>
+        <v>-0.9227698147906941</v>
       </c>
     </row>
     <row r="15">
@@ -1021,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.486356795690579</v>
+        <v>1.725433919303154</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6144013878496541</v>
+        <v>0.6243729812418281</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1727587673879536</v>
+        <v>-0.0586072430679159</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.330819577408939</v>
+        <v>0.2897820446062749</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6754143915167663</v>
+        <v>0.547520883274452</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.7027403338952775</v>
+        <v>-0.6860778134378754</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5127182234813958</v>
+        <v>0.5273958194769155</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2404588446460761</v>
+        <v>0.2365074483795008</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.6150457194381649</v>
+        <v>-0.648882920867853</v>
       </c>
     </row>
     <row r="16">
@@ -1095,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.407666859848439</v>
+        <v>-6.274430103145578</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.565201704457505</v>
+        <v>-5.791028113361493</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.623043654185015</v>
+        <v>-2.896321951305309</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.029490323202815</v>
+        <v>-9.306124235120409</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.070727967041753</v>
+        <v>-9.020910741303215</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.651365484086869</v>
+        <v>-6.817427927689648</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.013639865117312</v>
+        <v>-6.806782021640746</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.69341101866316</v>
+        <v>-6.545743600081646</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.036035111280255</v>
+        <v>-3.892467448256066</v>
       </c>
     </row>
     <row r="18">
@@ -1130,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.124281367790043</v>
+        <v>-2.076670856754792</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.075611272766658</v>
+        <v>-1.092648751382512</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.333138098060024</v>
+        <v>3.283469826586392</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-3.401506923918664</v>
+        <v>-3.888400831599361</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-3.36345500376317</v>
+        <v>-3.433334108007303</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.1924085071624226</v>
+        <v>-0.7335085121081839</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-3.395072237021813</v>
+        <v>-3.485053403072932</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-2.866591576829586</v>
+        <v>-2.822039541677643</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6413938470062103</v>
+        <v>0.4402611509413384</v>
       </c>
     </row>
     <row r="19">
@@ -1180,7 +1184,7 @@
         <v>-0.9012491770018036</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.5292502046497632</v>
+        <v>-0.5292502046497631</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.9708781270290678</v>
@@ -1204,7 +1208,7 @@
         <v>-1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5537970626638418</v>
+        <v>-0.5829047108742637</v>
       </c>
       <c r="F20" s="6" t="n">
         <v>-1</v>
@@ -1213,16 +1217,16 @@
         <v>-1</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7814590309815518</v>
+        <v>-0.7847091563513179</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.9746203814437638</v>
+        <v>-0.976322665838833</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6195362495189934</v>
+        <v>-0.6179336847063895</v>
       </c>
     </row>
     <row r="21">
@@ -1234,28 +1238,28 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>-0.01171387456471148</v>
+        <v>0.2324532528720375</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.580616013092054</v>
+        <v>1.510646124378046</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.7218460217072958</v>
+        <v>-0.6569456534783811</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.5856159930301078</v>
+        <v>-0.6332096981878333</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0046284096716382</v>
+        <v>-0.07387361587969392</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.8334828796886503</v>
+        <v>-0.8590128702855344</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.6612689442179562</v>
+        <v>-0.6251381341859268</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2115193083041396</v>
+        <v>0.1467054641914808</v>
       </c>
     </row>
     <row r="22">
@@ -1276,7 +1280,7 @@
         <v>-1.535997176050731</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.2821873781023009</v>
+        <v>-0.2821873781023005</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.6979974099523941</v>
@@ -1285,7 +1289,7 @@
         <v>0.3595622342540933</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.3935872542642889</v>
+        <v>-0.3935872542642899</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.026701694209399</v>
@@ -1294,7 +1298,7 @@
         <v>-0.5727141383286838</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.3414025048474378</v>
+        <v>-0.3414025048474382</v>
       </c>
     </row>
     <row r="23">
@@ -1305,31 +1309,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.535612619667465</v>
+        <v>-3.571355707224046</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.702707484875734</v>
+        <v>-3.964716391657683</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.603075506359395</v>
+        <v>-2.411693067754672</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.801627728842528</v>
+        <v>-2.610545700703232</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.383061728520044</v>
+        <v>-1.961353244934249</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.508020318229226</v>
+        <v>-2.847914125310472</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.577072600780618</v>
+        <v>-2.841419845384207</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.268079567231351</v>
+        <v>-2.288456838651594</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.147085741617283</v>
+        <v>-2.023870967095947</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1344,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7549691324119955</v>
+        <v>0.649520557598065</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2764803260334632</v>
+        <v>0.1661321517983551</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.4750526734314</v>
+        <v>2.366914086442932</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.379293036683288</v>
+        <v>1.413172868691571</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.771146508378283</v>
+        <v>3.243337301098177</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.506641962118165</v>
+        <v>1.302474992676845</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4279805047005225</v>
+        <v>0.2995892437149925</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.225687739360114</v>
+        <v>1.126305365092704</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.137344498231561</v>
+        <v>1.077870456269029</v>
       </c>
     </row>
     <row r="25">
@@ -1381,7 +1385,7 @@
         <v>-0.5547186421604375</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1019107337281669</v>
+        <v>-0.1019107337281668</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2531522102182059</v>
@@ -1390,7 +1394,7 @@
         <v>0.1304073238876748</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1427476404783728</v>
+        <v>-0.1427476404783731</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.3715904852477945</v>
@@ -1399,7 +1403,7 @@
         <v>-0.2072803870589736</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1235625918965301</v>
+        <v>-0.1235625918965302</v>
       </c>
     </row>
     <row r="26">
@@ -1410,31 +1414,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8588130239857019</v>
+        <v>-0.8662046922440753</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.880822128113584</v>
+        <v>-0.9266011228019133</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6653196685598631</v>
+        <v>-0.6636239305647407</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7531224552515853</v>
+        <v>-0.7126078266544675</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5975732527261273</v>
+        <v>-0.5471511310084406</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6039861573785595</v>
+        <v>-0.6265886825861792</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6984552423532349</v>
+        <v>-0.7294055388845162</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5894433141717687</v>
+        <v>-0.625989441570721</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5339331223107289</v>
+        <v>-0.5152112150345998</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1449,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7951238760381304</v>
+        <v>0.7569660406136866</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2461523974091528</v>
+        <v>0.2341476039016818</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.48718402476973</v>
+        <v>1.69204460551701</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9817218721592398</v>
+        <v>0.8339699892396673</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.523703368393923</v>
+        <v>1.921703942920409</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.230794862141504</v>
+        <v>0.8433193618231043</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3106479951937736</v>
+        <v>0.2332377549604087</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6633598823552411</v>
+        <v>0.6030485716376993</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6346292181627331</v>
+        <v>0.5590630564555362</v>
       </c>
     </row>
     <row r="28">
@@ -1519,31 +1523,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.512547509849375</v>
+        <v>-9.661034062928364</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.13025462063771</v>
+        <v>-11.63480806199976</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.89691442342162</v>
+        <v>-11.70802201560771</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-11.34855358986485</v>
+        <v>-11.818777887974</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-13.16226624810397</v>
+        <v>-13.10790931437356</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-14.24115853504994</v>
+        <v>-14.09406948379092</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-9.44188900567641</v>
+        <v>-9.428281650242059</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-11.27077693558977</v>
+        <v>-11.26618251499991</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-11.81107936894705</v>
+        <v>-11.55462046360925</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1558,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.202672060534484</v>
+        <v>-0.9710494242586989</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.549414602176632</v>
+        <v>-4.350793773173873</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.162591136132462</v>
+        <v>-4.087698818129657</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-2.158765156194962</v>
+        <v>-2.41860516480113</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-4.571824412632575</v>
+        <v>-4.905634421562226</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-6.119110728987557</v>
+        <v>-5.997245607989585</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-2.928195935333411</v>
+        <v>-3.15365882958674</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-5.307971185637779</v>
+        <v>-5.4225607863938</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-6.130107553169804</v>
+        <v>-6.122190543958069</v>
       </c>
     </row>
     <row r="31">
@@ -1624,26 +1628,26 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9094331359270896</v>
+        <v>-0.9158511052555866</v>
       </c>
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.9059286635306433</v>
+        <v>-0.8855506425143714</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.9670045037264434</v>
+        <v>-1</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.8544013982381455</v>
+        <v>-0.8649006657396067</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.9795457464715392</v>
+        <v>-0.9797332177670537</v>
       </c>
       <c r="K32" s="6" t="n">
         <v>-1</v>
@@ -1657,29 +1661,29 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.07712697125263981</v>
+        <v>-0.1251116987190062</v>
       </c>
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="n">
-        <v>-0.7179816511409358</v>
+        <v>-0.7421424155357724</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2092406320151978</v>
+        <v>-0.2775902718928285</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.5124211325294199</v>
+        <v>-0.5941401410702595</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.9025492628914462</v>
+        <v>-0.8951676334813544</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.3958227446382298</v>
+        <v>-0.4064785344220785</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.7607788217878556</v>
+        <v>-0.7598641285607485</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.8924978251630764</v>
+        <v>-0.8724151189700209</v>
       </c>
     </row>
     <row r="34">
@@ -1709,7 +1713,7 @@
         <v>-1.505687508971746</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.9630404678162792</v>
+        <v>-0.9630404678162795</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.9226542943597159</v>
@@ -1729,31 +1733,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.872636044057642</v>
+        <v>-1.86190246558827</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.543091258005537</v>
+        <v>-2.51486784899744</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.000826077320057</v>
+        <v>-1.918011425586814</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.812551751331714</v>
+        <v>-3.700747707540676</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.705488155460519</v>
+        <v>-3.878846621392879</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.351216154232677</v>
+        <v>-3.416550880968355</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.243966151280842</v>
+        <v>-2.214147490929325</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.491058180246152</v>
+        <v>-2.499255571413324</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.019233092839231</v>
+        <v>-1.896878183912063</v>
       </c>
     </row>
     <row r="36">
@@ -1764,31 +1768,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.145853764631542</v>
+        <v>1.135906333721749</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.3081361178653113</v>
+        <v>0.3090859762732142</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.334690043413458</v>
+        <v>1.307339191970886</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.02133943979627455</v>
+        <v>0.04038249189279832</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0</v>
+        <v>0.002419295465924648</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.6648948165155288</v>
+        <v>0.5317816152744258</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.2068625220414301</v>
+        <v>0.1943812916149865</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.2120510413509057</v>
+        <v>-0.1775991002883057</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.453516722715226</v>
+        <v>0.4887715877405727</v>
       </c>
     </row>
     <row r="37">
@@ -1814,7 +1818,7 @@
         <v>-0.8012018020284162</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.5124501290228679</v>
+        <v>-0.5124501290228681</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.6220551198388732</v>
@@ -1839,16 +1843,16 @@
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="n">
-        <v>-0.9002999485277167</v>
+        <v>-0.9216969843227639</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9281895747353702</v>
       </c>
       <c r="J38" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.8555157190016255</v>
+        <v>-0.8380112207131719</v>
       </c>
     </row>
     <row r="39">
@@ -1864,16 +1868,16 @@
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="n">
-        <v>1.710725361176779</v>
+        <v>1.735073980807471</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5730376317847302</v>
+        <v>0.719176828868869</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3558775745556889</v>
+        <v>0.113822805473672</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.8325810210146253</v>
+        <v>0.9338668718542485</v>
       </c>
     </row>
     <row r="40">
@@ -1912,7 +1916,7 @@
         <v>-2.851358426233913</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-2.993014377320543</v>
+        <v>-2.993014377320542</v>
       </c>
     </row>
     <row r="41">
@@ -1923,31 +1927,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.928280598155193</v>
+        <v>-2.815481089412241</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.501595465953731</v>
+        <v>-2.341017868658963</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.755581564689033</v>
+        <v>-2.893358469133317</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-8.071799468828381</v>
+        <v>-7.849118957280092</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.394869103364757</v>
+        <v>-7.089288529106083</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-6.812150538734246</v>
+        <v>-6.840152234834205</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-4.958320393694353</v>
+        <v>-4.83770774050562</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-4.312941598198196</v>
+        <v>-4.224023839895843</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.440484179568735</v>
+        <v>-4.276496998954957</v>
       </c>
     </row>
     <row r="42">
@@ -1958,31 +1962,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.2980884570763128</v>
+        <v>-0.3632272162066262</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.536148106320974</v>
+        <v>0.548793070150259</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.2159396731473139</v>
+        <v>-0.2236633174545298</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-3.779427721056118</v>
+        <v>-3.632515218390187</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-2.767386297546772</v>
+        <v>-2.600922735415903</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-2.442977478689378</v>
+        <v>-2.290531657893677</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-2.456437165545174</v>
+        <v>-2.359536950123205</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-1.579697998028347</v>
+        <v>-1.423902894122567</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-1.812076287774093</v>
+        <v>-1.752395924827553</v>
       </c>
     </row>
     <row r="43">
@@ -1999,7 +2003,7 @@
         <v>-0.4134296571374327</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.6673064763877418</v>
+        <v>-0.6673064763877419</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.8729052137737839</v>
@@ -2028,31 +2032,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.9109007802824779</v>
+        <v>-0.9070627057511425</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.8057829316415727</v>
+        <v>-0.7999734777649682</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.9177315557233281</v>
+        <v>-0.9058398492818428</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.9622033105989095</v>
+        <v>-0.9744917373201091</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.8719501812429201</v>
+        <v>-0.8675715150799962</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.8251979433441967</v>
+        <v>-0.8378356515529971</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.9150928639199556</v>
+        <v>-0.9115765244194308</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.8083047489544343</v>
+        <v>-0.8018397083491432</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.8268724664848605</v>
+        <v>-0.8156910646423035</v>
       </c>
     </row>
     <row r="45">
@@ -2063,31 +2067,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1057381248821823</v>
+        <v>-0.1374420995078864</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5204450683130964</v>
+        <v>0.6408613281253389</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.01674096240318666</v>
+        <v>0.0609732290568731</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.6610066135034814</v>
+        <v>-0.6498252852606894</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.4902669383696527</v>
+        <v>-0.4919048228245033</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.4324347207436016</v>
+        <v>-0.4548769498351545</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.6400818956564173</v>
+        <v>-0.6471687083912238</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.4136045894009103</v>
+        <v>-0.4220835699381183</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.4963496581080051</v>
+        <v>-0.5011129414939589</v>
       </c>
     </row>
     <row r="46">
@@ -2137,31 +2141,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.138450535553132</v>
+        <v>-3.200497509559594</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.92304446302162</v>
+        <v>-3.893471019141375</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.753806590968898</v>
+        <v>-3.656657080315041</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-4.568400000379577</v>
+        <v>-4.478279953563055</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.30134645801722</v>
+        <v>-4.362704384516997</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.626627179452955</v>
+        <v>-4.64894156847722</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-3.470679093310016</v>
+        <v>-3.462529227311366</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.758825661801522</v>
+        <v>-3.624899218557928</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.653373121747149</v>
+        <v>-3.55892983288111</v>
       </c>
     </row>
     <row r="48">
@@ -2172,31 +2176,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.2442949850403011</v>
+        <v>-0.2514783142211027</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.225370813982108</v>
+        <v>-1.223813344428034</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.9496530897975743</v>
+        <v>-0.9477940179398738</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-1.711031130675907</v>
+        <v>-1.648546478933685</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-1.460633286160892</v>
+        <v>-1.507793755843133</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.759104023895087</v>
+        <v>-1.744737984545807</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-1.402205159865367</v>
+        <v>-1.312865080550006</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.760908984052275</v>
+        <v>-1.653529052824472</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-1.706318497865528</v>
+        <v>-1.622931793651839</v>
       </c>
     </row>
     <row r="49">
@@ -2242,31 +2246,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.855150995600536</v>
+        <v>-0.8560459903917172</v>
       </c>
       <c r="D50" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.9484811107031752</v>
+        <v>-0.9512563319650786</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.9541055281310564</v>
+        <v>-0.9384952861904478</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.9199149917716503</v>
+        <v>-0.9266871612697242</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.9304949713668998</v>
+        <v>-0.9291832223883835</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.8644486431185862</v>
+        <v>-0.8599312649961288</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.9323571027588003</v>
+        <v>-0.9230685992060229</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.9160444441936821</v>
+        <v>-0.9055891549357236</v>
       </c>
     </row>
     <row r="51">
@@ -2277,31 +2281,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.0181391413929276</v>
+        <v>-0.06336069900839107</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.5869643939632831</v>
+        <v>-0.5163646665755318</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.4373190016660185</v>
+        <v>-0.3603388481003838</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.5640292053645447</v>
+        <v>-0.5503755304081561</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.4534870549366048</v>
+        <v>-0.4889563591391755</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.6105437435447203</v>
+        <v>-0.5924512967016818</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.4765204597079726</v>
+        <v>-0.4769788902028247</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.6554299805275956</v>
+        <v>-0.6343896593128132</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.6518493676636588</v>
+        <v>-0.6432125702439602</v>
       </c>
     </row>
     <row r="52">
@@ -2340,7 +2344,7 @@
         <v>-2.072835827461913</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-2.650618026911973</v>
+        <v>-2.650618026911974</v>
       </c>
     </row>
     <row r="53">
@@ -2351,31 +2355,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.008393806224667</v>
+        <v>-2.099728949866101</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-2.300289569289508</v>
+        <v>-2.340660556147539</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-2.584196740181768</v>
+        <v>-2.653541639546961</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-3.87171169594069</v>
+        <v>-3.959301137388097</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-3.485203165946196</v>
+        <v>-3.418348578587571</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-4.186345786958972</v>
+        <v>-4.240784752099683</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-2.778862149562372</v>
+        <v>-2.752168968842725</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-2.60814372151225</v>
+        <v>-2.692416257457038</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-3.196646971564409</v>
+        <v>-3.195353418008294</v>
       </c>
     </row>
     <row r="54">
@@ -2386,31 +2390,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.4986908896793412</v>
+        <v>-0.5700658886829542</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.8616880895153309</v>
+        <v>-0.8413655700873472</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-1.216578330430675</v>
+        <v>-1.208372920186634</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-2.177892202799018</v>
+        <v>-2.262056979757426</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-1.688636855056924</v>
+        <v>-1.706375516120531</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-2.722846132608491</v>
+        <v>-2.665503568388329</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-1.638773562655288</v>
+        <v>-1.600553012707783</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-1.426981583520512</v>
+        <v>-1.537341892883124</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-2.11666301388226</v>
+        <v>-2.142157422561846</v>
       </c>
     </row>
     <row r="55">
@@ -2445,7 +2449,7 @@
         <v>-0.5413291161013714</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.6922191784901421</v>
+        <v>-0.6922191784901423</v>
       </c>
     </row>
     <row r="56">
@@ -2456,31 +2460,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.6060388588252438</v>
+        <v>-0.604544545155139</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.6725353253680733</v>
+        <v>-0.6886997672687418</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.7568314587644254</v>
+        <v>-0.7670053068774262</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.7491605779603785</v>
+        <v>-0.7598193227990039</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.6633685718285566</v>
+        <v>-0.6568225641409712</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.7962182931939635</v>
+        <v>-0.7967883991237045</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.6650830295044922</v>
+        <v>-0.6565249163837188</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.6344748697894319</v>
+        <v>-0.632726207598987</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.7593987801341695</v>
+        <v>-0.7569281654111732</v>
       </c>
     </row>
     <row r="57">
@@ -2491,31 +2495,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.19560097411688</v>
+        <v>-0.2123105539919978</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.3348284359728639</v>
+        <v>-0.3206084006296086</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.4685676917641284</v>
+        <v>-0.4620548559503435</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.5329318766871489</v>
+        <v>-0.5433505137728827</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.4127936058891636</v>
+        <v>-0.406905149986707</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.6419695125678007</v>
+        <v>-0.624986825417204</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.4611062356260295</v>
+        <v>-0.4664779715665634</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.4067675415294968</v>
+        <v>-0.4286928115551731</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.6092180132766447</v>
+        <v>-0.6128040060037716</v>
       </c>
     </row>
     <row r="58">
